--- a/application/views/rpt/xlsx/UKR_podatkova_nakladna2015.xlsx
+++ b/application/views/rpt/xlsx/UKR_podatkova_nakladna2015.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\isell3\application\views\rpt\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
@@ -242,9 +247,6 @@
     <t>{$v[p][ag_date_dot]}</t>
   </si>
   <si>
-    <t>{$v[date_dot]}&lt;merge3&gt;</t>
-  </si>
-  <si>
     <t>{$v[entries][loop][product_name]}&lt;merge8&gt;</t>
   </si>
   <si>
@@ -309,6 +311,9 @@
   </si>
   <si>
     <t>{$v[p][company_phone]}</t>
+  </si>
+  <si>
+    <t>{$v[date]}&lt;merge3&gt;</t>
   </si>
 </sst>
 </file>
@@ -820,11 +825,224 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -852,12 +1070,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,42 +1082,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -914,183 +1096,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,7 +1157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1187,7 +1192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1398,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1414,24 +1419,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
       <c r="M1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1439,33 +1444,33 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
       <c r="M2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1475,29 +1480,29 @@
       <c r="S2" s="4"/>
       <c r="W2" s="6"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="3"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1507,59 +1512,59 @@
       <c r="S3" s="4"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="61"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -1572,20 +1577,20 @@
       <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -1596,72 +1601,72 @@
       <c r="AE6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
     </row>
     <row r="9" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="41" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="Q9" s="39" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="Q9" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
       <c r="Z9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1669,269 +1674,269 @@
       <c r="AB9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
     </row>
     <row r="11" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="Q11" s="44" t="s">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
+      <c r="Q11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="46" t="s">
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="48"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="74"/>
     </row>
     <row r="12" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="51"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="77"/>
     </row>
     <row r="13" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="29"/>
-      <c r="V13" s="69" t="s">
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="100"/>
+      <c r="V13" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
     </row>
     <row r="14" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
       <c r="P14" s="12"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="70"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
     </row>
     <row r="15" spans="1:31" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
-      <c r="F15" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="73"/>
+      <c r="F15" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="73"/>
+      <c r="V15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="32"/>
     </row>
     <row r="16" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="42" t="s">
+      <c r="V16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
     </row>
     <row r="17" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="75" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="Q17" s="44" t="s">
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="Q17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="75" t="s">
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
     </row>
     <row r="18" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
     </row>
     <row r="19" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
@@ -1949,7 +1954,7 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="114"/>
+      <c r="P19" s="26"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
@@ -1967,140 +1972,140 @@
       <c r="AE19" s="23"/>
     </row>
     <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="111" t="s">
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="44" t="s">
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y20" s="112"/>
-      <c r="Z20" s="112"/>
-      <c r="AA20" s="112"/>
-      <c r="AB20" s="112"/>
-      <c r="AC20" s="112"/>
-      <c r="AD20" s="112"/>
-      <c r="AE20" s="113"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="86"/>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="25" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="24" t="s">
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="74"/>
-      <c r="V22" s="41" t="s">
+      <c r="U22" s="81"/>
+      <c r="V22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
       <c r="AA22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AB22" s="41" t="s">
+      <c r="AB22" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
     </row>
     <row r="24" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="25" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" spans="1:31" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -2109,21 +2114,21 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
@@ -2138,823 +2143,929 @@
       <c r="AE25" s="15"/>
     </row>
     <row r="26" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56" t="s">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="26" t="s">
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="56" t="s">
+      <c r="N26" s="98"/>
+      <c r="O26" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="P26" s="56" t="s">
+      <c r="P26" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56" t="s">
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56" t="s">
+      <c r="S26" s="66"/>
+      <c r="T26" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56" t="s">
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AE26" s="78"/>
+      <c r="AE26" s="67"/>
     </row>
     <row r="27" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57" t="s">
+      <c r="A27" s="113"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57" t="s">
+      <c r="U27" s="64"/>
+      <c r="V27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57" t="s">
+      <c r="W27" s="64"/>
+      <c r="X27" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57" t="s">
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="79"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="68"/>
     </row>
     <row r="28" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57" t="s">
+      <c r="A28" s="113"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57" t="s">
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="79"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="68"/>
     </row>
     <row r="29" spans="1:31" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="80"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="69"/>
     </row>
     <row r="30" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="70">
         <v>2</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81">
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70">
         <v>3</v>
       </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="32">
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="103">
         <v>4</v>
       </c>
-      <c r="N30" s="33"/>
+      <c r="N30" s="104"/>
       <c r="O30" s="19">
         <v>5</v>
       </c>
-      <c r="P30" s="81">
+      <c r="P30" s="70">
         <v>6</v>
       </c>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81">
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70">
         <v>7</v>
       </c>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81">
+      <c r="S30" s="70"/>
+      <c r="T30" s="70">
         <v>8</v>
       </c>
-      <c r="U30" s="81"/>
-      <c r="V30" s="81">
+      <c r="U30" s="70"/>
+      <c r="V30" s="70">
         <v>9</v>
       </c>
-      <c r="W30" s="81"/>
-      <c r="X30" s="81">
+      <c r="W30" s="70"/>
+      <c r="X30" s="70">
         <v>10</v>
       </c>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="81">
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70">
         <v>11</v>
       </c>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81">
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70">
         <v>12</v>
       </c>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81">
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70">
         <v>13</v>
       </c>
-      <c r="AE30" s="82"/>
+      <c r="AE30" s="71"/>
     </row>
     <row r="31" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87" t="s">
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="37"/>
+      <c r="O31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="20" t="s">
+      <c r="P31" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="86" t="s">
+      <c r="Q31" s="58"/>
+      <c r="R31" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="93" t="s">
+      <c r="S31" s="62"/>
+      <c r="T31" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="S31" s="93"/>
-      <c r="T31" s="90" t="s">
+      <c r="U31" s="59"/>
+      <c r="V31" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="U31" s="90"/>
-      <c r="V31" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="90" t="s">
+      <c r="W31" s="63"/>
+      <c r="X31" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="AE31" s="91"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE31" s="60"/>
     </row>
     <row r="32" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="105"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="35" t="s">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="36"/>
+      <c r="N32" s="44"/>
       <c r="O32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P32" s="41" t="s">
+      <c r="P32" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41" t="s">
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="S32" s="41"/>
-      <c r="T32" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="U32" s="92"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE32" s="85"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="U32" s="61"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE32" s="57"/>
     </row>
     <row r="33" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="35" t="s">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="36"/>
+      <c r="N33" s="44"/>
       <c r="O33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P33" s="41" t="s">
+      <c r="P33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41" t="s">
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41" t="s">
+      <c r="S33" s="54"/>
+      <c r="T33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41" t="s">
+      <c r="U33" s="54"/>
+      <c r="V33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41" t="s">
+      <c r="W33" s="54"/>
+      <c r="X33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41" t="s">
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41" t="s">
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="83"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="55"/>
     </row>
     <row r="34" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="35" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="36"/>
+      <c r="N34" s="44"/>
       <c r="O34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P34" s="41" t="s">
+      <c r="P34" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41" t="s">
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="S34" s="41"/>
-      <c r="T34" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="U34" s="95"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41">
+      <c r="S34" s="54"/>
+      <c r="T34" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="U34" s="52"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54">
         <v>0</v>
       </c>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41">
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54">
         <v>0</v>
       </c>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41" t="s">
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE34" s="110"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE34" s="53"/>
     </row>
     <row r="35" spans="1:31" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="37" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="N35" s="38"/>
+      <c r="N35" s="107"/>
       <c r="O35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="101" t="s">
+      <c r="P35" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101" t="s">
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="101"/>
-      <c r="T35" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="U35" s="102"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="101"/>
-      <c r="AD35" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE35" s="103"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="U35" s="39"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE35" s="40"/>
     </row>
     <row r="36" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="99"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="99"/>
-      <c r="W36" s="99"/>
-      <c r="X36" s="99"/>
-      <c r="Y36" s="99"/>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="99"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="99"/>
-      <c r="AE36" s="99"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
     </row>
     <row r="37" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77"/>
-      <c r="Y37" s="77"/>
-      <c r="Z37" s="77"/>
-      <c r="AA37" s="77"/>
-      <c r="AB37" s="77"/>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="77"/>
-      <c r="AE37" s="77"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
     </row>
     <row r="39" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="24"/>
-      <c r="P39" s="25" t="s">
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="80"/>
+      <c r="P39" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
     </row>
     <row r="40" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="100"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="24"/>
-      <c r="P40" s="52" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="80"/>
+      <c r="P40" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
     </row>
     <row r="41" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="25"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="96"/>
-      <c r="X42" s="96"/>
-      <c r="Y42" s="96"/>
-      <c r="Z42" s="96"/>
-      <c r="AA42" s="96"/>
-      <c r="AB42" s="96"/>
-      <c r="AC42" s="96"/>
-      <c r="AD42" s="96"/>
-      <c r="AE42" s="96"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
     </row>
     <row r="43" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96"/>
-      <c r="V43" s="96"/>
-      <c r="W43" s="96"/>
-      <c r="X43" s="96"/>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="96"/>
-      <c r="AE43" s="96"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
     </row>
     <row r="44" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="96"/>
-      <c r="AC44" s="96"/>
-      <c r="AD44" s="96"/>
-      <c r="AE44" s="96"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
     </row>
     <row r="45" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="96"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
     </row>
     <row r="46" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="97"/>
-      <c r="S46" s="97"/>
-      <c r="T46" s="97"/>
-      <c r="U46" s="97"/>
-      <c r="V46" s="97"/>
-      <c r="W46" s="97"/>
-      <c r="X46" s="97"/>
-      <c r="Y46" s="97"/>
-      <c r="Z46" s="97"/>
-      <c r="AA46" s="97"/>
-      <c r="AB46" s="97"/>
-      <c r="AC46" s="97"/>
-      <c r="AD46" s="97"/>
-      <c r="AE46" s="97"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
     </row>
     <row r="47" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="M26:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="F13:O14"/>
+    <mergeCell ref="A11:E12"/>
+    <mergeCell ref="F11:O12"/>
+    <mergeCell ref="G23:S23"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:D29"/>
+    <mergeCell ref="E26:L29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="G25:S25"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L6"/>
+    <mergeCell ref="Y1:AE4"/>
+    <mergeCell ref="J8:V8"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="V11:AE12"/>
+    <mergeCell ref="Q11:U12"/>
+    <mergeCell ref="V13:AE14"/>
+    <mergeCell ref="V15:AE15"/>
+    <mergeCell ref="V16:AE16"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="G22:S22"/>
+    <mergeCell ref="V17:AE18"/>
+    <mergeCell ref="Q17:U18"/>
+    <mergeCell ref="G17:O18"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="X20:AE20"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="AB27:AC29"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="AD26:AE29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="P26:Q29"/>
+    <mergeCell ref="R26:S29"/>
+    <mergeCell ref="T27:U29"/>
+    <mergeCell ref="V27:W29"/>
+    <mergeCell ref="X28:Y29"/>
+    <mergeCell ref="Z28:AA29"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
     <mergeCell ref="Q20:V20"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="P18:P19"/>
@@ -2979,112 +3090,6 @@
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="AB27:AC29"/>
-    <mergeCell ref="T26:AC26"/>
-    <mergeCell ref="AD26:AE29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="P26:Q29"/>
-    <mergeCell ref="R26:S29"/>
-    <mergeCell ref="T27:U29"/>
-    <mergeCell ref="V27:W29"/>
-    <mergeCell ref="X28:Y29"/>
-    <mergeCell ref="Z28:AA29"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="V11:AE12"/>
-    <mergeCell ref="Q11:U12"/>
-    <mergeCell ref="V13:AE14"/>
-    <mergeCell ref="V15:AE15"/>
-    <mergeCell ref="V16:AE16"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="G22:S22"/>
-    <mergeCell ref="V17:AE18"/>
-    <mergeCell ref="Q17:U18"/>
-    <mergeCell ref="G17:O18"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="X20:AE20"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L6"/>
-    <mergeCell ref="Y1:AE4"/>
-    <mergeCell ref="J8:V8"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="M26:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="F13:O14"/>
-    <mergeCell ref="A11:E12"/>
-    <mergeCell ref="F11:O12"/>
-    <mergeCell ref="G23:S23"/>
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:D29"/>
-    <mergeCell ref="E26:L29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="G24:S24"/>
-    <mergeCell ref="G25:S25"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application/views/rpt/xlsx/UKR_podatkova_nakladna2015.xlsx
+++ b/application/views/rpt/xlsx/UKR_podatkova_nakladna2015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>Паперова</t>
   </si>
@@ -730,6 +730,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -740,34 +749,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -825,7 +819,226 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -839,39 +1052,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -881,24 +1067,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -908,194 +1079,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,7 +1410,7 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1419,22 +1425,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="93" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
       <c r="M1" s="3" t="s">
         <v>80</v>
       </c>
@@ -1444,31 +1450,31 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
     </row>
     <row r="2" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
       <c r="M2" s="3" t="s">
         <v>79</v>
       </c>
@@ -1480,29 +1486,29 @@
       <c r="S2" s="4"/>
       <c r="W2" s="6"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="3"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1512,57 +1518,57 @@
       <c r="S3" s="4"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="3" t="s">
         <v>77</v>
       </c>
@@ -1577,18 +1583,18 @@
       <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="21" t="s">
         <v>76</v>
       </c>
@@ -1601,72 +1607,72 @@
       <c r="AE6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="36"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
     </row>
     <row r="9" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="54" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="Q9" s="108" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="Q9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="54" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
       <c r="Z9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1674,269 +1680,269 @@
       <c r="AB9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
     </row>
     <row r="11" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="72" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
-      <c r="Q11" s="24" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="Q11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="72" t="s">
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="74"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="48"/>
     </row>
     <row r="12" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="77"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="51"/>
     </row>
     <row r="13" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="100"/>
-      <c r="V13" s="78" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="29"/>
+      <c r="V13" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
     </row>
     <row r="14" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
       <c r="P14" s="12"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
     </row>
     <row r="15" spans="1:31" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="73"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="30" t="s">
+      <c r="V15" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="32"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="73"/>
     </row>
     <row r="16" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="29" t="s">
+      <c r="V16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
     </row>
     <row r="17" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="82" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="Q17" s="24" t="s">
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="Q17" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="82" t="s">
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
     </row>
     <row r="18" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
     </row>
     <row r="19" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
@@ -1954,7 +1960,7 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="26"/>
+      <c r="P19" s="99"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
@@ -1972,140 +1978,140 @@
       <c r="AE19" s="23"/>
     </row>
     <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="84" t="s">
+      <c r="I20" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="86"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="24" t="s">
+      <c r="Q20" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
       <c r="W20" s="23"/>
-      <c r="X20" s="84" t="s">
+      <c r="X20" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="86"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="37" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="80" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="81"/>
-      <c r="V22" s="54" t="s">
+      <c r="U22" s="74"/>
+      <c r="V22" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
       <c r="AA22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AB22" s="54" t="s">
+      <c r="AB22" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="37" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="1:31" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -2114,21 +2120,21 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="107" t="s">
+      <c r="G25" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
@@ -2143,823 +2149,931 @@
       <c r="AE25" s="15"/>
     </row>
     <row r="26" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="97" t="s">
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="98"/>
-      <c r="O26" s="66" t="s">
+      <c r="N26" s="27"/>
+      <c r="O26" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66" t="s">
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66" t="s">
+      <c r="S26" s="56"/>
+      <c r="T26" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66" t="s">
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AE26" s="67"/>
+      <c r="AE26" s="81"/>
     </row>
     <row r="27" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64" t="s">
+      <c r="U27" s="57"/>
+      <c r="V27" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64" t="s">
+      <c r="W27" s="57"/>
+      <c r="X27" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64" t="s">
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="68"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="82"/>
     </row>
     <row r="28" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64" t="s">
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="68"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="82"/>
     </row>
     <row r="29" spans="1:31" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="69"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="83"/>
     </row>
     <row r="30" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="84">
         <v>2</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70">
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84">
         <v>3</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="103">
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="32">
         <v>4</v>
       </c>
-      <c r="N30" s="104"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="19">
         <v>5</v>
       </c>
-      <c r="P30" s="70">
+      <c r="P30" s="84">
         <v>6</v>
       </c>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70">
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84">
         <v>7</v>
       </c>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70">
+      <c r="S30" s="84"/>
+      <c r="T30" s="84">
         <v>8</v>
       </c>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70">
+      <c r="U30" s="84"/>
+      <c r="V30" s="84">
         <v>9</v>
       </c>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70">
+      <c r="W30" s="84"/>
+      <c r="X30" s="84">
         <v>10</v>
       </c>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70">
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84">
         <v>11</v>
       </c>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70">
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84">
         <v>12</v>
       </c>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70">
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="115">
         <v>13</v>
       </c>
-      <c r="AE30" s="71"/>
+      <c r="AE30" s="116"/>
     </row>
     <row r="31" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="46" t="s">
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="105" t="s">
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="N31" s="37"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="P31" s="58" t="s">
+      <c r="P31" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="62" t="s">
+      <c r="Q31" s="87"/>
+      <c r="R31" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="S31" s="62"/>
-      <c r="T31" s="59" t="s">
+      <c r="S31" s="93"/>
+      <c r="T31" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="U31" s="59"/>
-      <c r="V31" s="63" t="s">
+      <c r="U31" s="91"/>
+      <c r="V31" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63" t="s">
+      <c r="W31" s="94"/>
+      <c r="X31" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63" t="s">
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63" t="s">
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE31" s="60"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE31" s="118"/>
     </row>
     <row r="32" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="106"/>
+      <c r="B32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="43" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="44"/>
+      <c r="N32" s="36"/>
       <c r="O32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P32" s="54" t="s">
+      <c r="P32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54" t="s">
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="S32" s="54"/>
-      <c r="T32" s="56" t="s">
+      <c r="S32" s="41"/>
+      <c r="T32" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="U32" s="61"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="56" t="s">
+      <c r="U32" s="92"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="AE32" s="57"/>
+      <c r="AE32" s="113"/>
     </row>
     <row r="33" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="43" t="s">
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="44"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P33" s="54" t="s">
+      <c r="P33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54" t="s">
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54" t="s">
+      <c r="S33" s="41"/>
+      <c r="T33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54" t="s">
+      <c r="U33" s="41"/>
+      <c r="V33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54" t="s">
+      <c r="W33" s="41"/>
+      <c r="X33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54" t="s">
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54" t="s">
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="55"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE33" s="85"/>
     </row>
     <row r="34" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="43" t="s">
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="44"/>
+      <c r="N34" s="36"/>
       <c r="O34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P34" s="54" t="s">
+      <c r="P34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54" t="s">
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="S34" s="54"/>
-      <c r="T34" s="52" t="s">
+      <c r="S34" s="41"/>
+      <c r="T34" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="U34" s="52"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54">
+      <c r="U34" s="97"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41">
         <v>0</v>
       </c>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54">
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41">
         <v>0</v>
       </c>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54" t="s">
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="52" t="s">
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="AE34" s="53"/>
+      <c r="AE34" s="111"/>
     </row>
     <row r="35" spans="1:31" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="106" t="s">
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N35" s="107"/>
+      <c r="N35" s="38"/>
       <c r="O35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="38" t="s">
+      <c r="P35" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38" t="s">
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="38"/>
-      <c r="T35" s="39" t="s">
+      <c r="S35" s="96"/>
+      <c r="T35" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="U35" s="39"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="39" t="s">
+      <c r="U35" s="95"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="96"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="96"/>
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="96"/>
+      <c r="AD35" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="AE35" s="40"/>
+      <c r="AE35" s="104"/>
     </row>
     <row r="36" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="102"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="102"/>
+      <c r="X36" s="102"/>
+      <c r="Y36" s="102"/>
+      <c r="Z36" s="102"/>
+      <c r="AA36" s="102"/>
+      <c r="AB36" s="102"/>
+      <c r="AC36" s="102"/>
+      <c r="AD36" s="102"/>
+      <c r="AE36" s="102"/>
     </row>
     <row r="37" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="80"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="80"/>
+      <c r="AD37" s="80"/>
+      <c r="AE37" s="80"/>
     </row>
     <row r="39" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="80"/>
-      <c r="P39" s="37" t="s">
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="24"/>
+      <c r="P39" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
     </row>
     <row r="40" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="80"/>
-      <c r="P40" s="36" t="s">
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="24"/>
+      <c r="P40" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
     </row>
     <row r="41" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="37"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="100"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="100"/>
+      <c r="Y42" s="100"/>
+      <c r="Z42" s="100"/>
+      <c r="AA42" s="100"/>
+      <c r="AB42" s="100"/>
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="100"/>
+      <c r="AE42" s="100"/>
     </row>
     <row r="43" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="100"/>
+      <c r="V43" s="100"/>
+      <c r="W43" s="100"/>
+      <c r="X43" s="100"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="100"/>
+      <c r="AA43" s="100"/>
+      <c r="AB43" s="100"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="100"/>
+      <c r="AE43" s="100"/>
     </row>
     <row r="44" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="100"/>
+      <c r="AE44" s="100"/>
     </row>
     <row r="45" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="100"/>
+      <c r="R45" s="100"/>
+      <c r="S45" s="100"/>
+      <c r="T45" s="100"/>
+      <c r="U45" s="100"/>
+      <c r="V45" s="100"/>
+      <c r="W45" s="100"/>
+      <c r="X45" s="100"/>
+      <c r="Y45" s="100"/>
+      <c r="Z45" s="100"/>
+      <c r="AA45" s="100"/>
+      <c r="AB45" s="100"/>
+      <c r="AC45" s="100"/>
+      <c r="AD45" s="100"/>
+      <c r="AE45" s="100"/>
     </row>
     <row r="46" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="101"/>
+      <c r="O46" s="101"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="101"/>
+      <c r="U46" s="101"/>
+      <c r="V46" s="101"/>
+      <c r="W46" s="101"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="101"/>
+      <c r="AB46" s="101"/>
+      <c r="AC46" s="101"/>
+      <c r="AD46" s="101"/>
+      <c r="AE46" s="101"/>
     </row>
     <row r="47" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="A42:AE43"/>
+    <mergeCell ref="A44:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="A47:AE47"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="A36:AE37"/>
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="P40:AE40"/>
+    <mergeCell ref="P39:AE39"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="AB27:AC29"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="AD26:AE29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="P26:Q29"/>
+    <mergeCell ref="R26:S29"/>
+    <mergeCell ref="T27:U29"/>
+    <mergeCell ref="V27:W29"/>
+    <mergeCell ref="X28:Y29"/>
+    <mergeCell ref="Z28:AA29"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="V11:AE12"/>
+    <mergeCell ref="Q11:U12"/>
+    <mergeCell ref="V13:AE14"/>
+    <mergeCell ref="V15:AE15"/>
+    <mergeCell ref="V16:AE16"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="G22:S22"/>
+    <mergeCell ref="V17:AE18"/>
+    <mergeCell ref="Q17:U18"/>
+    <mergeCell ref="G17:O18"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="X20:AE20"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L6"/>
+    <mergeCell ref="Y1:AE4"/>
+    <mergeCell ref="J8:V8"/>
+    <mergeCell ref="A7:M7"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="M26:N29"/>
     <mergeCell ref="M30:N30"/>
@@ -2984,112 +3098,6 @@
     <mergeCell ref="O26:O29"/>
     <mergeCell ref="G24:S24"/>
     <mergeCell ref="G25:S25"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L6"/>
-    <mergeCell ref="Y1:AE4"/>
-    <mergeCell ref="J8:V8"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="V11:AE12"/>
-    <mergeCell ref="Q11:U12"/>
-    <mergeCell ref="V13:AE14"/>
-    <mergeCell ref="V15:AE15"/>
-    <mergeCell ref="V16:AE16"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="G22:S22"/>
-    <mergeCell ref="V17:AE18"/>
-    <mergeCell ref="Q17:U18"/>
-    <mergeCell ref="G17:O18"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="X20:AE20"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="AB27:AC29"/>
-    <mergeCell ref="T26:AC26"/>
-    <mergeCell ref="AD26:AE29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="P26:Q29"/>
-    <mergeCell ref="R26:S29"/>
-    <mergeCell ref="T27:U29"/>
-    <mergeCell ref="V27:W29"/>
-    <mergeCell ref="X28:Y29"/>
-    <mergeCell ref="Z28:AA29"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="A42:AE43"/>
-    <mergeCell ref="A44:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="A47:AE47"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="A36:AE37"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="P40:AE40"/>
-    <mergeCell ref="P39:AE39"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
